--- a/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5548</v>
+        <v>5808</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18242</v>
+        <v>18548</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0393560039918027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02032123815742603</v>
+        <v>0.02127574822987496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06681867294727722</v>
+        <v>0.06793914515999754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>20385</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13125</v>
+        <v>13175</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30661</v>
+        <v>30368</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07815256358240259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0503203424837894</v>
+        <v>0.050510550478472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1175464485409539</v>
+        <v>0.1164254505669647</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -786,19 +786,19 @@
         <v>31130</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21566</v>
+        <v>21470</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42516</v>
+        <v>43542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05831199887596458</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04039690549097369</v>
+        <v>0.04021744359753081</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0796409209255646</v>
+        <v>0.08156244050631847</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>262265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254768</v>
+        <v>254462</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267462</v>
+        <v>267202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9606439960081973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9331813270527228</v>
+        <v>0.9320608548400026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.979678761842574</v>
+        <v>0.978724251770125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -836,19 +836,19 @@
         <v>240453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>230177</v>
+        <v>230470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247713</v>
+        <v>247663</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9218474364175974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.882453551459046</v>
+        <v>0.8835745494330355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9496796575162105</v>
+        <v>0.9494894495215281</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -857,19 +857,19 @@
         <v>502718</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>491332</v>
+        <v>490306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>512282</v>
+        <v>512378</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9416880011240354</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9203590790744355</v>
+        <v>0.9184375594936814</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9596030945090264</v>
+        <v>0.9597825564024692</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>32146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22552</v>
+        <v>22901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44784</v>
+        <v>45494</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06519596395116377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04573657021614966</v>
+        <v>0.04644606835195524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09082602834466723</v>
+        <v>0.09226596644212665</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -982,19 +982,19 @@
         <v>38709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29380</v>
+        <v>27907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52807</v>
+        <v>52101</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07681042192615149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05829866308486507</v>
+        <v>0.05537679951734252</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1047870756797948</v>
+        <v>0.1033859890430761</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -1003,19 +1003,19 @@
         <v>70855</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55252</v>
+        <v>56529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86466</v>
+        <v>87448</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07106652893556811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05541643931513431</v>
+        <v>0.05669800368416125</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08672371526226048</v>
+        <v>0.08770855269894846</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>460929</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448291</v>
+        <v>447581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470523</v>
+        <v>470174</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9348040360488362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9091739716553326</v>
+        <v>0.9077340335578731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9542634297838503</v>
+        <v>0.9535539316480444</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>460</v>
@@ -1053,19 +1053,19 @@
         <v>465240</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451142</v>
+        <v>451848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>474569</v>
+        <v>476042</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9231895780738485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8952129243202058</v>
+        <v>0.8966140109569251</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9417013369151352</v>
+        <v>0.9446232004826578</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -1074,19 +1074,19 @@
         <v>926169</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>910558</v>
+        <v>909576</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>941772</v>
+        <v>940495</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9289334710644319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9132762847377395</v>
+        <v>0.9122914473010513</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9445835606848657</v>
+        <v>0.9433019963158386</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25062</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16235</v>
+        <v>16762</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35230</v>
+        <v>35175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0786037409838158</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05091709445089005</v>
+        <v>0.05257215995694751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1104927729832278</v>
+        <v>0.1103210257194436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1199,19 +1199,19 @@
         <v>27621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19294</v>
+        <v>17822</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39485</v>
+        <v>38161</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08235017603758626</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05752285396572439</v>
+        <v>0.05313592695398316</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1177214001015265</v>
+        <v>0.1137720529109298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -1220,19 +1220,19 @@
         <v>52684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38953</v>
+        <v>39028</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67463</v>
+        <v>65947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08052438918026361</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05953761026566893</v>
+        <v>0.05965175368043559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1031143479624578</v>
+        <v>0.1007966440844033</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>293784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283616</v>
+        <v>283671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302611</v>
+        <v>302084</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9213962590161842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8895072270167725</v>
+        <v>0.8896789742805564</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.94908290554911</v>
+        <v>0.9474278400430525</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>308</v>
@@ -1270,19 +1270,19 @@
         <v>307791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295927</v>
+        <v>297251</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316118</v>
+        <v>317590</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9176498239624137</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8822785998984735</v>
+        <v>0.8862279470890703</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9424771460342757</v>
+        <v>0.9468640730460168</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>592</v>
@@ -1291,19 +1291,19 @@
         <v>601574</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>586795</v>
+        <v>588311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615305</v>
+        <v>615230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9194756108197364</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8968856520375422</v>
+        <v>0.8992033559155971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9404623897343312</v>
+        <v>0.9403482463195648</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>16362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9823</v>
+        <v>9724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25285</v>
+        <v>24533</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04561883000125817</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02738641839035848</v>
+        <v>0.02711001826203167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07049683928013364</v>
+        <v>0.06839899956372696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>19081</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12581</v>
+        <v>12134</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28706</v>
+        <v>29041</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05136729323374107</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03386845879029785</v>
+        <v>0.03266498092803196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07727884798348827</v>
+        <v>0.07818237517631706</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1437,19 +1437,19 @@
         <v>35443</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25303</v>
+        <v>25701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48068</v>
+        <v>47815</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04854339070398315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03465605438842635</v>
+        <v>0.0352005554165802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06583447214241993</v>
+        <v>0.06548821150572177</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>342309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>333386</v>
+        <v>334138</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348848</v>
+        <v>348947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9543811699987418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9295031607198657</v>
+        <v>0.9316010004362733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9726135816096414</v>
+        <v>0.9728899817379684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>364</v>
@@ -1487,19 +1487,19 @@
         <v>352375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342750</v>
+        <v>342415</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>358875</v>
+        <v>359322</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9486327067662589</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9227211520165123</v>
+        <v>0.9218176248236829</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9661315412097021</v>
+        <v>0.9673350190719681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>708</v>
@@ -1508,19 +1508,19 @@
         <v>694684</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>682059</v>
+        <v>682312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>704824</v>
+        <v>704426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9514566092960168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9341655278575799</v>
+        <v>0.9345117884942784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9653439456115737</v>
+        <v>0.96479944458342</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14864</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8337</v>
+        <v>8514</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23192</v>
+        <v>24809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07311215582055146</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04100708516014438</v>
+        <v>0.04187760295770176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1140731155412476</v>
+        <v>0.1220274181692614</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>12171</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6329</v>
+        <v>6229</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20854</v>
+        <v>19298</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05860829240976515</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03047869400323463</v>
+        <v>0.02999322569241255</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1004202533554167</v>
+        <v>0.09292546162193624</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1654,19 +1654,19 @@
         <v>27035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18210</v>
+        <v>17435</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38427</v>
+        <v>38236</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06578328997515083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0443103471633497</v>
+        <v>0.04242296095853965</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0935022371295262</v>
+        <v>0.09303754017549176</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>188444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180116</v>
+        <v>178499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194971</v>
+        <v>194794</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9268878441794486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8859268844587525</v>
+        <v>0.8779725818307387</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9589929148398554</v>
+        <v>0.9581223970422983</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>186</v>
@@ -1704,19 +1704,19 @@
         <v>195497</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186814</v>
+        <v>188370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201339</v>
+        <v>201439</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9413917075902348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8995797466445837</v>
+        <v>0.9070745383780632</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9695213059967659</v>
+        <v>0.9700067743075875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>378</v>
@@ -1725,19 +1725,19 @@
         <v>383941</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>372549</v>
+        <v>372740</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>392766</v>
+        <v>393541</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9342167100248492</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9064977628704739</v>
+        <v>0.9069624598245084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9556896528366504</v>
+        <v>0.9575770390414605</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>13268</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6708</v>
+        <v>7593</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21041</v>
+        <v>22122</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04899484299726532</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02477025446053044</v>
+        <v>0.02803675274151312</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0776944243869683</v>
+        <v>0.0816867224782071</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1850,19 +1850,19 @@
         <v>31031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21893</v>
+        <v>21160</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41860</v>
+        <v>43304</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1115636611826449</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07871237019202569</v>
+        <v>0.07607398675232335</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1504985347891303</v>
+        <v>0.1556877314173521</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1871,19 +1871,19 @@
         <v>44299</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33458</v>
+        <v>33295</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59646</v>
+        <v>59847</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0806971523643783</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06094799145773208</v>
+        <v>0.06065248489843141</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1086540902559235</v>
+        <v>0.1090204990945906</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>257543</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249770</v>
+        <v>248689</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264103</v>
+        <v>263218</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9510051570027347</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9223055756130317</v>
+        <v>0.9183132775217936</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9752297455394695</v>
+        <v>0.9719632472584868</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -1921,19 +1921,19 @@
         <v>247113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236284</v>
+        <v>234840</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256251</v>
+        <v>256984</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8884363388173551</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8495014652108697</v>
+        <v>0.8443122685826479</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9212876298079743</v>
+        <v>0.9239260132476766</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>493</v>
@@ -1942,19 +1942,19 @@
         <v>504656</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>489309</v>
+        <v>489108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>515497</v>
+        <v>515660</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9193028476356216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8913459097440765</v>
+        <v>0.8909795009054097</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9390520085422678</v>
+        <v>0.9393475151015687</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>35190</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25642</v>
+        <v>25113</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48325</v>
+        <v>47657</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05721620183967428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04169325706591555</v>
+        <v>0.04083251637822896</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07857376807646491</v>
+        <v>0.0774884077814396</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -2067,19 +2067,19 @@
         <v>49420</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37644</v>
+        <v>37382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66116</v>
+        <v>64500</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07743419594172959</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05898234076242174</v>
+        <v>0.05857256215933936</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1035939664795323</v>
+        <v>0.1010624545258472</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -2088,19 +2088,19 @@
         <v>84609</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68636</v>
+        <v>67577</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>103203</v>
+        <v>104688</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06751227166012029</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0547669398252039</v>
+        <v>0.05392145448923667</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08234816004239262</v>
+        <v>0.08353370634771133</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>579837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>566702</v>
+        <v>567370</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>589385</v>
+        <v>589914</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9427837981603258</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9214262319235351</v>
+        <v>0.9225115922185604</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9583067429340845</v>
+        <v>0.9591674836217711</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>573</v>
@@ -2138,19 +2138,19 @@
         <v>588799</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>572103</v>
+        <v>573719</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>600575</v>
+        <v>600837</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9225658040582704</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8964060335204683</v>
+        <v>0.8989375454741528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9410176592375784</v>
+        <v>0.9414274378406605</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1134</v>
@@ -2159,19 +2159,19 @@
         <v>1168637</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1150043</v>
+        <v>1148558</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1184610</v>
+        <v>1185669</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9324877283398797</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9176518399576074</v>
+        <v>0.9164662936522887</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9452330601747961</v>
+        <v>0.9460785455107633</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>43011</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31403</v>
+        <v>32692</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56218</v>
+        <v>58022</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05790614766534426</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0422779556826411</v>
+        <v>0.04401312932964078</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07568643695766983</v>
+        <v>0.07811504529794622</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -2284,19 +2284,19 @@
         <v>68345</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53927</v>
+        <v>53676</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85454</v>
+        <v>84033</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08722898740175673</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06882733775575756</v>
+        <v>0.06850657482276991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1090657882105952</v>
+        <v>0.1072517919099422</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -2305,19 +2305,19 @@
         <v>111356</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>92994</v>
+        <v>92559</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133612</v>
+        <v>134707</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07295885685719522</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06092839273139816</v>
+        <v>0.06064341107097585</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08754026779694066</v>
+        <v>0.08825779529404733</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>699766</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>686559</v>
+        <v>684755</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>711374</v>
+        <v>710085</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9420938523346557</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9243135630423301</v>
+        <v>0.9218849547020538</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9577220443173589</v>
+        <v>0.9559868706703593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>682</v>
@@ -2355,19 +2355,19 @@
         <v>715166</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>698057</v>
+        <v>699478</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>729584</v>
+        <v>729835</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9127710125982432</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8909342117894046</v>
+        <v>0.8927482080900575</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9311726622442423</v>
+        <v>0.9314934251772299</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1373</v>
@@ -2376,19 +2376,19 @@
         <v>1414932</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1392676</v>
+        <v>1391581</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1433294</v>
+        <v>1433729</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9270411431428047</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9124597322030586</v>
+        <v>0.9117422047059527</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9390716072686018</v>
+        <v>0.9393565889290241</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>190649</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>165743</v>
+        <v>166153</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>217398</v>
+        <v>216846</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05820416966638154</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0506005079674793</v>
+        <v>0.05072564420296714</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06637043299411595</v>
+        <v>0.06620189561769277</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>259</v>
@@ -2501,19 +2501,19 @@
         <v>266762</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>238253</v>
+        <v>236815</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>298677</v>
+        <v>300427</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07894251104839838</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07050587476787733</v>
+        <v>0.0700802020046396</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08838687479010104</v>
+        <v>0.08890486802097994</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>456</v>
@@ -2522,19 +2522,19 @@
         <v>457412</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>413689</v>
+        <v>420110</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>501266</v>
+        <v>499339</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06873487891827212</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06216473828129911</v>
+        <v>0.06312957525298749</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07532482565275934</v>
+        <v>0.07503528001827912</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3084876</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3058127</v>
+        <v>3058679</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3109782</v>
+        <v>3109372</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9417958303336185</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9336295670058841</v>
+        <v>0.9337981043823073</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9493994920325209</v>
+        <v>0.9492743557970329</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3038</v>
@@ -2572,19 +2572,19 @@
         <v>3112435</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3080520</v>
+        <v>3078770</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3140944</v>
+        <v>3142382</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9210574889516017</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9116131252098991</v>
+        <v>0.9110951319790208</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9294941252321227</v>
+        <v>0.9299197979953604</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6054</v>
@@ -2593,19 +2593,19 @@
         <v>6197310</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6153456</v>
+        <v>6155383</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6241033</v>
+        <v>6234612</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9312651210817279</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9246751743472407</v>
+        <v>0.924964719981721</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9378352617187006</v>
+        <v>0.9368704247470128</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>26514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16604</v>
+        <v>17261</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39155</v>
+        <v>40506</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09049034115560564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05666580774536747</v>
+        <v>0.05891011317047795</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1336296333790016</v>
+        <v>0.1382407820667314</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2962,19 +2962,19 @@
         <v>27474</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18768</v>
+        <v>17728</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39899</v>
+        <v>38613</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09765739080602627</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06671265562012819</v>
+        <v>0.06301506448307244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1418214405803477</v>
+        <v>0.1372522431426703</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -2983,19 +2983,19 @@
         <v>53989</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40548</v>
+        <v>39122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69880</v>
+        <v>69540</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09400099541170644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07059928053871888</v>
+        <v>0.06811566742650316</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1216709560207026</v>
+        <v>0.1210786463051771</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>266495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253854</v>
+        <v>252503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276405</v>
+        <v>275748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9095096588443944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.866370366620998</v>
+        <v>0.8617592179332684</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9433341922546324</v>
+        <v>0.941089886829522</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>226</v>
@@ -3033,19 +3033,19 @@
         <v>253856</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>241431</v>
+        <v>242717</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>262562</v>
+        <v>263602</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9023426091939737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8581785594196526</v>
+        <v>0.8627477568573297</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9332873443798718</v>
+        <v>0.9369849355169276</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -3054,19 +3054,19 @@
         <v>520351</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>504460</v>
+        <v>504800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>533792</v>
+        <v>535218</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9059990045882935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8783290439792971</v>
+        <v>0.8789213536948228</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.929400719461281</v>
+        <v>0.9318843325734968</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>62594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46954</v>
+        <v>48066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80232</v>
+        <v>81219</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1238197718780605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09288162738648525</v>
+        <v>0.0950804141369556</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1587094680193728</v>
+        <v>0.1606611700785507</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -3179,19 +3179,19 @@
         <v>77738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62597</v>
+        <v>62119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95351</v>
+        <v>96779</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1487156604779184</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1197491425432389</v>
+        <v>0.1188347114893285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1824095468394302</v>
+        <v>0.1851402610913642</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -3200,19 +3200,19 @@
         <v>140333</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117759</v>
+        <v>116523</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164700</v>
+        <v>164842</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.136475979543133</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1145229510750266</v>
+        <v>0.113320676192363</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1601734512252353</v>
+        <v>0.1603121019780731</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>442933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>425295</v>
+        <v>424308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458573</v>
+        <v>457461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8761802281219395</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8412905319806272</v>
+        <v>0.839338829921449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9071183726135147</v>
+        <v>0.9049195858630442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>409</v>
@@ -3250,19 +3250,19 @@
         <v>444993</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>427380</v>
+        <v>425952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>460134</v>
+        <v>460612</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8512843395220816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8175904531605698</v>
+        <v>0.8148597389086358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.880250857456761</v>
+        <v>0.8811652885106714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>828</v>
@@ -3271,19 +3271,19 @@
         <v>887925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>863558</v>
+        <v>863416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>910499</v>
+        <v>911735</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8635240204568669</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8398265487747647</v>
+        <v>0.8396878980219269</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8854770489249734</v>
+        <v>0.8866793238076369</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>33614</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24338</v>
+        <v>22696</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45617</v>
+        <v>45173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1040298139110417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07532154561310168</v>
+        <v>0.07024155742647657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1411788262175322</v>
+        <v>0.1398028445436914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3396,19 +3396,19 @@
         <v>41750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30404</v>
+        <v>30150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56036</v>
+        <v>55995</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.122427587764486</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08915494953948123</v>
+        <v>0.08841084340477097</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1643178856339153</v>
+        <v>0.1641983857303729</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -3417,19 +3417,19 @@
         <v>75364</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59699</v>
+        <v>59466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92123</v>
+        <v>92299</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1134766860041893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08988984949882321</v>
+        <v>0.08953956624774352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.138710362339199</v>
+        <v>0.1389764900997596</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>289502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>277499</v>
+        <v>277943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298778</v>
+        <v>300420</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8959701860889583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8588211737824675</v>
+        <v>0.8601971554563087</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9246784543868981</v>
+        <v>0.9297584425735235</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>279</v>
@@ -3467,19 +3467,19 @@
         <v>299270</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>284984</v>
+        <v>285025</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>310616</v>
+        <v>310870</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8775724122355141</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8356821143660851</v>
+        <v>0.8358016142696268</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9108450504605189</v>
+        <v>0.911589156595229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>565</v>
@@ -3488,19 +3488,19 @@
         <v>588772</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>572013</v>
+        <v>571837</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>604437</v>
+        <v>604670</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8865233139958107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8612896376608008</v>
+        <v>0.8610235099002403</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9101101505011767</v>
+        <v>0.9104604337522564</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>39266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27634</v>
+        <v>28197</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52914</v>
+        <v>53845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1049932476763042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07389158730072169</v>
+        <v>0.07539758230404398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1414877972344034</v>
+        <v>0.1439773662121513</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -3613,19 +3613,19 @@
         <v>51989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40520</v>
+        <v>41146</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66827</v>
+        <v>68328</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1340001882052745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1044411134448448</v>
+        <v>0.1060523006044478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.172247158270499</v>
+        <v>0.1761146484724608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -3634,19 +3634,19 @@
         <v>91254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73875</v>
+        <v>73942</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112823</v>
+        <v>109341</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.119763050979195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09695465952938007</v>
+        <v>0.09704254802058092</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1480705685581252</v>
+        <v>0.1434998654619872</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>334716</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>321068</v>
+        <v>320137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346348</v>
+        <v>345785</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8950067523236959</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8585122027655967</v>
+        <v>0.8560226337878487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9261084126992782</v>
+        <v>0.9246024176959562</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>319</v>
@@ -3684,19 +3684,19 @@
         <v>335985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>321147</v>
+        <v>319646</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>347454</v>
+        <v>346828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8659998117947255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8277528417295009</v>
+        <v>0.8238853515275392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8955588865551551</v>
+        <v>0.8939476993955521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>629</v>
@@ -3705,19 +3705,19 @@
         <v>670702</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>649133</v>
+        <v>652615</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>688081</v>
+        <v>688014</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.880236949020805</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8519294314418755</v>
+        <v>0.8565001345380132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9030453404706204</v>
+        <v>0.9029574519794192</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>29481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20527</v>
+        <v>20666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40738</v>
+        <v>41274</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1386564758951355</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09654236490025075</v>
+        <v>0.09719555100759257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1916019891526252</v>
+        <v>0.1941244447683561</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -3830,19 +3830,19 @@
         <v>41372</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30610</v>
+        <v>30318</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52981</v>
+        <v>54091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1884046151081162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.139393518070449</v>
+        <v>0.138067901510537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2412697284862314</v>
+        <v>0.2463270000658921</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -3851,19 +3851,19 @@
         <v>70853</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57118</v>
+        <v>57251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86876</v>
+        <v>86886</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1639318464749569</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1321537564938676</v>
+        <v>0.1324620512929886</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2010043507765437</v>
+        <v>0.2010280723713052</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>183137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171880</v>
+        <v>171344</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192091</v>
+        <v>191952</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8613435241048645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8083980108473747</v>
+        <v>0.8058755552316434</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9034576350997492</v>
+        <v>0.9028044489924074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>173</v>
@@ -3901,19 +3901,19 @@
         <v>178219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166610</v>
+        <v>165500</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>188981</v>
+        <v>189273</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8115953848918839</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7587302715137686</v>
+        <v>0.753672999934108</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8606064819295507</v>
+        <v>0.8619320984894624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>342</v>
@@ -3922,19 +3922,19 @@
         <v>361356</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>345333</v>
+        <v>345323</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>375091</v>
+        <v>374958</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.836068153525043</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7989956492234562</v>
+        <v>0.7989719276286948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8678462435061325</v>
+        <v>0.8675379487070114</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>36040</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25939</v>
+        <v>26068</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48303</v>
+        <v>50650</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1315430367515398</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09467561672251719</v>
+        <v>0.09514658095314334</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1762999292685781</v>
+        <v>0.1848656174557806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -4047,19 +4047,19 @@
         <v>37535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27787</v>
+        <v>26888</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50031</v>
+        <v>49120</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1344681218824939</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09954613955220609</v>
+        <v>0.09632509427217742</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.179232522474429</v>
+        <v>0.1759698698416179</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -4068,19 +4068,19 @@
         <v>73576</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59029</v>
+        <v>58283</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92596</v>
+        <v>91360</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1330192215420831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1067204777032157</v>
+        <v>0.1053702946366489</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1674062254037732</v>
+        <v>0.1651716053475144</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>237941</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225678</v>
+        <v>223331</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248042</v>
+        <v>247913</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8684569632484602</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8237000707314217</v>
+        <v>0.8151343825442192</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9053243832774828</v>
+        <v>0.9048534190468561</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -4118,19 +4118,19 @@
         <v>241605</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229109</v>
+        <v>230020</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>251353</v>
+        <v>252252</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8655318781175061</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8207674775255713</v>
+        <v>0.824030130158382</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9004538604477944</v>
+        <v>0.9036749057278225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>458</v>
@@ -4139,19 +4139,19 @@
         <v>479545</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>460525</v>
+        <v>461761</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>494092</v>
+        <v>494838</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8669807784579169</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8325937745962269</v>
+        <v>0.8348283946524856</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8932795222967843</v>
+        <v>0.8946297053633511</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>69663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54655</v>
+        <v>53810</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87847</v>
+        <v>87520</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.105234723466853</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08256396848883044</v>
+        <v>0.08128656580311379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1327048014436256</v>
+        <v>0.1322096407339646</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -4264,19 +4264,19 @@
         <v>75449</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58612</v>
+        <v>59026</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>93526</v>
+        <v>94597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1089080992569297</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08460546203440572</v>
+        <v>0.08520195375028168</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1350025775245678</v>
+        <v>0.1365489039919272</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -4285,19 +4285,19 @@
         <v>145111</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121952</v>
+        <v>118664</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>168529</v>
+        <v>170170</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1071131643047404</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09001831365036003</v>
+        <v>0.08759087312185523</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1243991349312166</v>
+        <v>0.1256099044729101</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>592313</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>574129</v>
+        <v>574456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>607321</v>
+        <v>608166</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.894765276533147</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8672951985563743</v>
+        <v>0.8677903592660353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9174360315111695</v>
+        <v>0.9187134341968862</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>570</v>
@@ -4335,19 +4335,19 @@
         <v>617324</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>599247</v>
+        <v>598176</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>634161</v>
+        <v>633747</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8910919007430703</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8649974224754324</v>
+        <v>0.8634510960080728</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9153945379655943</v>
+        <v>0.9147980462497184</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1124</v>
@@ -4356,19 +4356,19 @@
         <v>1209637</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1186219</v>
+        <v>1184578</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1232796</v>
+        <v>1236084</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8928868356952596</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8756008650687834</v>
+        <v>0.8743900955270899</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9099816863496401</v>
+        <v>0.9124091268781448</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>54816</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41870</v>
+        <v>42132</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72569</v>
+        <v>72031</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07055056680131107</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05388880839782071</v>
+        <v>0.05422586694973717</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09339963719860825</v>
+        <v>0.09270740175247474</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>76</v>
@@ -4481,19 +4481,19 @@
         <v>82260</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65872</v>
+        <v>66241</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98983</v>
+        <v>100699</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1001317071481831</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08018288841369602</v>
+        <v>0.08063241097995832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1204879991896018</v>
+        <v>0.1225761566662406</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -4502,19 +4502,19 @@
         <v>137076</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>116151</v>
+        <v>112977</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>160032</v>
+        <v>161116</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08575333727005199</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07266307937836869</v>
+        <v>0.07067736263245172</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1001144145047441</v>
+        <v>0.1007927576199593</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>722156</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>704403</v>
+        <v>704941</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>735102</v>
+        <v>734840</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9294494331986889</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9066003628013918</v>
+        <v>0.9072925982475266</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9461111916021793</v>
+        <v>0.945774133050263</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>679</v>
@@ -4552,19 +4552,19 @@
         <v>739260</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>722537</v>
+        <v>720821</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>755648</v>
+        <v>755279</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8998682928518168</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8795120008103984</v>
+        <v>0.8774238433337597</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9198171115863041</v>
+        <v>0.9193675890200417</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1345</v>
@@ -4573,19 +4573,19 @@
         <v>1461416</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1438460</v>
+        <v>1437376</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1482341</v>
+        <v>1485515</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.914246662729948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8998855854952559</v>
+        <v>0.8992072423800406</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9273369206216313</v>
+        <v>0.9293226373675483</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>351988</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>317467</v>
+        <v>316461</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>390306</v>
+        <v>391635</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1028848928827465</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09279444438169521</v>
+        <v>0.09250060057258822</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1140851299277312</v>
+        <v>0.1144735460232436</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>400</v>
@@ -4698,19 +4698,19 @@
         <v>435567</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>397144</v>
+        <v>394241</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>480695</v>
+        <v>475074</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1228306679169676</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1119952580726624</v>
+        <v>0.1111766981195295</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1355567187974031</v>
+        <v>0.1339714806560046</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>716</v>
@@ -4719,19 +4719,19 @@
         <v>787555</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>733289</v>
+        <v>733534</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>843619</v>
+        <v>847681</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1130365591394028</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.105247849121919</v>
+        <v>0.1052829263503196</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1210832459892789</v>
+        <v>0.1216662826989511</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3069193</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3030875</v>
+        <v>3029546</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3103714</v>
+        <v>3104720</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8971151071172535</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8859148700722688</v>
+        <v>0.8855264539767563</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9072055556183047</v>
+        <v>0.9074993994274118</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2887</v>
@@ -4769,19 +4769,19 @@
         <v>3110513</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3065385</v>
+        <v>3071006</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3148936</v>
+        <v>3151839</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8771693320830324</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8644432812025969</v>
+        <v>0.8660285193439952</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8880047419273387</v>
+        <v>0.8888233018804703</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5774</v>
@@ -4790,19 +4790,19 @@
         <v>6179706</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6123642</v>
+        <v>6119580</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6233972</v>
+        <v>6233727</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8869634408605972</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8789167540107211</v>
+        <v>0.8783337173010488</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8947521508780809</v>
+        <v>0.8947170736496803</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>20354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12902</v>
+        <v>13241</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31721</v>
+        <v>30973</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06928862853590273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0439207484165432</v>
+        <v>0.0450756488058281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1079814853855724</v>
+        <v>0.1054354424046213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -5159,19 +5159,19 @@
         <v>27535</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19235</v>
+        <v>19486</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39462</v>
+        <v>39607</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0953741770440773</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06662386683549712</v>
+        <v>0.06749396993532711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1366883017177906</v>
+        <v>0.1371896653664198</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -5180,19 +5180,19 @@
         <v>47889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36183</v>
+        <v>35552</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62928</v>
+        <v>62361</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08221814194502165</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06212124083581097</v>
+        <v>0.06103643001259408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1080371019779651</v>
+        <v>0.1070637880130194</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>273407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262040</v>
+        <v>262788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>280859</v>
+        <v>280520</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9307113714640972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8920185146144275</v>
+        <v>0.8945645575953792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9560792515834567</v>
+        <v>0.9549243511941721</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -5230,19 +5230,19 @@
         <v>261168</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249241</v>
+        <v>249096</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269468</v>
+        <v>269217</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9046258229559226</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8633116982822093</v>
+        <v>0.8628103346335803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9333761331645026</v>
+        <v>0.9325060300646729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>497</v>
@@ -5251,19 +5251,19 @@
         <v>534575</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>519536</v>
+        <v>520103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>546281</v>
+        <v>546912</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9177818580549784</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8919628980220348</v>
+        <v>0.8929362119869806</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9378787591641889</v>
+        <v>0.9389635699874059</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>51571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39022</v>
+        <v>39627</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67223</v>
+        <v>67571</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1026138831202302</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07764359564061629</v>
+        <v>0.07884698528107557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1337568692641913</v>
+        <v>0.1344500810492593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -5376,19 +5376,19 @@
         <v>67753</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53506</v>
+        <v>52029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83742</v>
+        <v>84085</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1295269403764011</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.102288611011136</v>
+        <v>0.09946635843160113</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1600925056264157</v>
+        <v>0.1607487616770638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -5397,19 +5397,19 @@
         <v>119325</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98847</v>
+        <v>100350</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141532</v>
+        <v>141785</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1163394826415444</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09637425282517662</v>
+        <v>0.09783965284690573</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1379911832141764</v>
+        <v>0.1382377247518627</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>451004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>435352</v>
+        <v>435004</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>463553</v>
+        <v>462948</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8973861168797699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8662431307358084</v>
+        <v>0.8655499189507405</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9223564043593833</v>
+        <v>0.9211530147189243</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>426</v>
@@ -5447,19 +5447,19 @@
         <v>455331</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>439342</v>
+        <v>438999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>469578</v>
+        <v>471055</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8704730596235989</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8399074943735846</v>
+        <v>0.8392512383229379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.897711388988864</v>
+        <v>0.900533641568399</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>851</v>
@@ -5468,19 +5468,19 @@
         <v>906334</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>884127</v>
+        <v>883874</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>926812</v>
+        <v>925309</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8836605173584556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8620088167858235</v>
+        <v>0.8617622752481373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9036257471748234</v>
+        <v>0.9021603471530941</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>38415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27374</v>
+        <v>28738</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50879</v>
+        <v>51095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1205890778554152</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08592795454963695</v>
+        <v>0.09021005628653848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1597126431535436</v>
+        <v>0.1603915847303965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -5593,19 +5593,19 @@
         <v>44872</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33401</v>
+        <v>32957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59658</v>
+        <v>60664</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1334262724038059</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09931536409511799</v>
+        <v>0.09799569159688684</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1773911067684474</v>
+        <v>0.1803830420631885</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -5614,19 +5614,19 @@
         <v>83288</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68321</v>
+        <v>67065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101328</v>
+        <v>102959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1271815889180717</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1043263215961045</v>
+        <v>0.1024087020568087</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1547291715733423</v>
+        <v>0.1572200634222759</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>280150</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>267686</v>
+        <v>267470</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291191</v>
+        <v>289827</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8794109221445848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8402873568464561</v>
+        <v>0.8396084152696035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9140720454503624</v>
+        <v>0.9097899437134616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>293</v>
@@ -5664,19 +5664,19 @@
         <v>291437</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>276651</v>
+        <v>275645</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302908</v>
+        <v>303352</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.866573727596194</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8226088932315526</v>
+        <v>0.8196169579368119</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9006846359048821</v>
+        <v>0.9020043084031133</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>586</v>
@@ -5685,19 +5685,19 @@
         <v>571586</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>553546</v>
+        <v>551915</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586553</v>
+        <v>587809</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8728184110819283</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8452708284266577</v>
+        <v>0.8427799365777241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8956736784038954</v>
+        <v>0.8975912979431914</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>39058</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28962</v>
+        <v>28843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51532</v>
+        <v>51279</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.105572348651967</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07828349960884749</v>
+        <v>0.07796110726366973</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1392894222819768</v>
+        <v>0.1386062244965669</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -5810,19 +5810,19 @@
         <v>50485</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37464</v>
+        <v>37854</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65773</v>
+        <v>64305</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1303570902544773</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09673545080376501</v>
+        <v>0.09774146608164107</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1698328826895741</v>
+        <v>0.1660423497585414</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -5831,19 +5831,19 @@
         <v>89543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73580</v>
+        <v>72765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109205</v>
+        <v>109033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.118248145473047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09716779218428587</v>
+        <v>0.09609102144129611</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1442131046915119</v>
+        <v>0.1439855863335886</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>330906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>318432</v>
+        <v>318685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>341002</v>
+        <v>341121</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.894427651348033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8607105777180235</v>
+        <v>0.8613937755034329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9217165003911526</v>
+        <v>0.9220388927363303</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>314</v>
@@ -5881,19 +5881,19 @@
         <v>336798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>321510</v>
+        <v>322978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>349819</v>
+        <v>349429</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8696429097455227</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8301671173104247</v>
+        <v>0.8339576502414587</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.903264549196235</v>
+        <v>0.902258533918359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>627</v>
@@ -5902,19 +5902,19 @@
         <v>667704</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>648042</v>
+        <v>648214</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>683667</v>
+        <v>684482</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8817518545269529</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8557868953084881</v>
+        <v>0.8560144136664113</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.902832207815714</v>
+        <v>0.9039089785587038</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>25359</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17056</v>
+        <v>18043</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36835</v>
+        <v>37085</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1200591679091425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08075043758588774</v>
+        <v>0.08542385695310385</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1743885543321459</v>
+        <v>0.1755742980766973</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -6027,19 +6027,19 @@
         <v>29565</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40717</v>
+        <v>41423</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1352547766269126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09332796104523512</v>
+        <v>0.09104129071332424</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1862723348288737</v>
+        <v>0.1895023138299398</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -6048,19 +6048,19 @@
         <v>54924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42710</v>
+        <v>42541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70274</v>
+        <v>69437</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1277871825953452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09936921077057705</v>
+        <v>0.09897601344230438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1635017188406287</v>
+        <v>0.1615530267875969</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>185862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174386</v>
+        <v>174136</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194165</v>
+        <v>193178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8799408320908575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8256114456678536</v>
+        <v>0.8244257019233028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9192495624141123</v>
+        <v>0.9145761430468961</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>194</v>
@@ -6098,19 +6098,19 @@
         <v>189022</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177870</v>
+        <v>177164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198187</v>
+        <v>198687</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8647452233730875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8137276651711265</v>
+        <v>0.8104976861700599</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9066720389547654</v>
+        <v>0.9089587092866758</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>380</v>
@@ -6119,19 +6119,19 @@
         <v>374884</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>359534</v>
+        <v>360371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>387098</v>
+        <v>387267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8722128174046548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8364982811593716</v>
+        <v>0.8384469732124029</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.900630789229423</v>
+        <v>0.9010239865576956</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>22968</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15106</v>
+        <v>14719</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33134</v>
+        <v>33660</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08729017609871756</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05741010657515482</v>
+        <v>0.05593865019807402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1259261529768278</v>
+        <v>0.1279231620684952</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -6244,19 +6244,19 @@
         <v>25158</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16177</v>
+        <v>16563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34955</v>
+        <v>36421</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09211377235978922</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05923103790497893</v>
+        <v>0.06064605149196927</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1279872099250122</v>
+        <v>0.1333524835153143</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -6265,19 +6265,19 @@
         <v>48126</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35587</v>
+        <v>35944</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61377</v>
+        <v>62835</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08974691451689273</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06636424673190718</v>
+        <v>0.06702995348739747</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1144585417725106</v>
+        <v>0.1171769263921977</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>240155</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229989</v>
+        <v>229463</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248017</v>
+        <v>248404</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9127098239012824</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8740738470231724</v>
+        <v>0.8720768379315047</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9425898934248452</v>
+        <v>0.9440613498019259</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -6315,19 +6315,19 @@
         <v>247957</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238160</v>
+        <v>236694</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256938</v>
+        <v>256552</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9078862276402108</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.872012790074988</v>
+        <v>0.8666475164846859</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9407689620950211</v>
+        <v>0.9393539485080308</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>475</v>
@@ -6336,19 +6336,19 @@
         <v>488112</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>474861</v>
+        <v>473403</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>500651</v>
+        <v>500294</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9102530854831072</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8855414582274893</v>
+        <v>0.8828230736078025</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9336357532680928</v>
+        <v>0.9329700465126025</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>52305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38872</v>
+        <v>39034</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68133</v>
+        <v>67598</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0796652003418972</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05920533525877366</v>
+        <v>0.05945305464277117</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1037723218567437</v>
+        <v>0.1029582697788083</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -6461,19 +6461,19 @@
         <v>53729</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40637</v>
+        <v>39721</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71571</v>
+        <v>69421</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07772302662791676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05878451667544664</v>
+        <v>0.0574582965598293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1035324421765861</v>
+        <v>0.1004219022907583</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -6482,19 +6482,19 @@
         <v>106034</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86717</v>
+        <v>86259</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128549</v>
+        <v>130215</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07866908723838562</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06433700488162519</v>
+        <v>0.06399723988907448</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09537320937312029</v>
+        <v>0.09660905724238854</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>604253</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>588425</v>
+        <v>588960</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>617686</v>
+        <v>617524</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9203347996581028</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8962276781432564</v>
+        <v>0.8970417302211914</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9407946647412264</v>
+        <v>0.9405469453572287</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>600</v>
@@ -6532,19 +6532,19 @@
         <v>637565</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>619723</v>
+        <v>621873</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>650657</v>
+        <v>651573</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9222769733720833</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8964675578234136</v>
+        <v>0.8995780977092427</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9412154833245531</v>
+        <v>0.9425417034401707</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1132</v>
@@ -6553,19 +6553,19 @@
         <v>1241818</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1219303</v>
+        <v>1217637</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1261135</v>
+        <v>1261593</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9213309127616144</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.904626790626879</v>
+        <v>0.9033909427576109</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9356629951183747</v>
+        <v>0.9360027601109254</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>68532</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53467</v>
+        <v>54470</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86590</v>
+        <v>85025</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08802166836814738</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06867264869290628</v>
+        <v>0.06996083112515539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1112150051520788</v>
+        <v>0.1092050574542431</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -6678,19 +6678,19 @@
         <v>90853</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>73195</v>
+        <v>73694</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>114636</v>
+        <v>114609</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1099693057351028</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08859566957366487</v>
+        <v>0.08919943201860302</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.138756603385613</v>
+        <v>0.1387237795834225</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>140</v>
@@ -6699,19 +6699,19 @@
         <v>159385</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134008</v>
+        <v>135675</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>185390</v>
+        <v>185108</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09932088243763038</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08350709085990012</v>
+        <v>0.08454574238596074</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1155259689203821</v>
+        <v>0.115349844608776</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>710051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>691993</v>
+        <v>693558</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>725116</v>
+        <v>724113</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9119783316318526</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8887849948479207</v>
+        <v>0.890794942545757</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9313273513070937</v>
+        <v>0.9300391688748451</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>681</v>
@@ -6749,19 +6749,19 @@
         <v>735314</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>711531</v>
+        <v>711558</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>752972</v>
+        <v>752473</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8900306942648971</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.861243396614387</v>
+        <v>0.8612762204165776</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9114043304263352</v>
+        <v>0.9108005679813971</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1365</v>
@@ -6770,19 +6770,19 @@
         <v>1445365</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1419360</v>
+        <v>1419642</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1470742</v>
+        <v>1469075</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9006791175623696</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8844740310796176</v>
+        <v>0.8846501553912239</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9164929091400995</v>
+        <v>0.9154542576140392</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>318563</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>285667</v>
+        <v>286296</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>353452</v>
+        <v>355487</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09385094936402504</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08415955811630285</v>
+        <v>0.0843449968116326</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1041296435324329</v>
+        <v>0.1047290231253397</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>339</v>
@@ -6895,19 +6895,19 @@
         <v>389951</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>350218</v>
+        <v>353871</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>431033</v>
+        <v>432705</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1100144630027955</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09880474789283292</v>
+        <v>0.09983557221183989</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1216046031479011</v>
+        <v>0.1220763438412802</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>656</v>
@@ -6916,19 +6916,19 @@
         <v>708514</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>659248</v>
+        <v>660251</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>760668</v>
+        <v>755557</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1021076350307065</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09500765199792503</v>
+        <v>0.09515225705018535</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.109623882212</v>
+        <v>0.1088872556888368</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3075787</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3040898</v>
+        <v>3038863</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3108683</v>
+        <v>3108054</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.906149050635975</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8958703564675671</v>
+        <v>0.8952709768746601</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9158404418836972</v>
+        <v>0.9156550031883671</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2999</v>
@@ -6966,19 +6966,19 @@
         <v>3154591</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3113509</v>
+        <v>3111837</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3194324</v>
+        <v>3190671</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8899855369972045</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8783953968520989</v>
+        <v>0.8779236561587196</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.901195252107167</v>
+        <v>0.9001644277881599</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5913</v>
@@ -6987,19 +6987,19 @@
         <v>6230378</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6178224</v>
+        <v>6183335</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6279644</v>
+        <v>6278641</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8978923649692935</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8903761177880001</v>
+        <v>0.8911127443111632</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.904992348002075</v>
+        <v>0.9048477429498146</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>38565</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29001</v>
+        <v>28568</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48874</v>
+        <v>47950</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1209521793895375</v>
+        <v>0.1209521793895376</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09095500623333397</v>
+        <v>0.08959976578934636</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.153285057988057</v>
+        <v>0.1503856319424117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -7356,19 +7356,19 @@
         <v>39804</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31719</v>
+        <v>32469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48300</v>
+        <v>48342</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1259386304726772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1003587051905619</v>
+        <v>0.1027299110570376</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.152818685471014</v>
+        <v>0.1529512167641799</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>131</v>
@@ -7377,19 +7377,19 @@
         <v>78369</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65744</v>
+        <v>66335</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91880</v>
+        <v>92297</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.123434469876606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1035491579803879</v>
+        <v>0.1044806603138763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1447139040556727</v>
+        <v>0.1453709517943161</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>280280</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269971</v>
+        <v>270895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289844</v>
+        <v>290277</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8790478206104623</v>
+        <v>0.8790478206104625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8467149420119429</v>
+        <v>0.8496143680575883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9090449937666663</v>
+        <v>0.9104002342106536</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>457</v>
@@ -7427,19 +7427,19 @@
         <v>276257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267761</v>
+        <v>267719</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284342</v>
+        <v>283592</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8740613695273228</v>
+        <v>0.8740613695273229</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8471813145289862</v>
+        <v>0.8470487832358202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8996412948094382</v>
+        <v>0.8972700889429623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>738</v>
@@ -7448,19 +7448,19 @@
         <v>556537</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>543026</v>
+        <v>542609</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569162</v>
+        <v>568571</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.876565530123394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8552860959443267</v>
+        <v>0.854629048205684</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.896450842019612</v>
+        <v>0.8955193396861236</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>50475</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38050</v>
+        <v>36684</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65926</v>
+        <v>66582</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09529749325199077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07183915974703427</v>
+        <v>0.06925935798333392</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1244683984394099</v>
+        <v>0.1257069740202743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -7573,19 +7573,19 @@
         <v>65203</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53860</v>
+        <v>54692</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79073</v>
+        <v>78356</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1195917443118728</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09878779242792803</v>
+        <v>0.1003130996593616</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1450321098908854</v>
+        <v>0.1437169634461563</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -7594,19 +7594,19 @@
         <v>115678</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97788</v>
+        <v>97728</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135012</v>
+        <v>134970</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1076203924458017</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0909763855302181</v>
+        <v>0.0909205410060791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1256069879951749</v>
+        <v>0.1255681229058643</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>479185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>463734</v>
+        <v>463078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>491610</v>
+        <v>492976</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9047025067480092</v>
+        <v>0.9047025067480093</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.87553160156059</v>
+        <v>0.8742930259797257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9281608402529655</v>
+        <v>0.9307406420166646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>614</v>
@@ -7644,19 +7644,19 @@
         <v>480010</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>466140</v>
+        <v>466857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491353</v>
+        <v>490521</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8804082556881272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8549678901091151</v>
+        <v>0.8562830365538436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9012122075720727</v>
+        <v>0.8996869003406383</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>947</v>
@@ -7665,19 +7665,19 @@
         <v>959195</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>939861</v>
+        <v>939903</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>977085</v>
+        <v>977145</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8923796075541982</v>
+        <v>0.8923796075541983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8743930120048251</v>
+        <v>0.8744318770941356</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9090236144697819</v>
+        <v>0.9090794589939206</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>46907</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35791</v>
+        <v>36704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57718</v>
+        <v>57381</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1484427497759287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1132647465501153</v>
+        <v>0.1161530406924894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1826565031199389</v>
+        <v>0.1815887613054812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -7790,19 +7790,19 @@
         <v>55764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44746</v>
+        <v>46096</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66075</v>
+        <v>67279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1564735287180053</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1255575935842203</v>
+        <v>0.1293454282595496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.185406274045145</v>
+        <v>0.188784248752644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -7811,19 +7811,19 @@
         <v>102671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89165</v>
+        <v>88662</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118508</v>
+        <v>117193</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1526993338959015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1326116244503126</v>
+        <v>0.1318644083902042</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1762523170872846</v>
+        <v>0.174297787223872</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>269086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258275</v>
+        <v>258612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>280202</v>
+        <v>279289</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8515572502240712</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8173434968800611</v>
+        <v>0.8184112386945188</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8867352534498849</v>
+        <v>0.8838469593075106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>431</v>
@@ -7861,19 +7861,19 @@
         <v>300617</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>290306</v>
+        <v>289102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>311635</v>
+        <v>310285</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8435264712819948</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.814593725954855</v>
+        <v>0.8112157512473553</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8744424064157795</v>
+        <v>0.8706545717404505</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>723</v>
@@ -7882,19 +7882,19 @@
         <v>569704</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>553867</v>
+        <v>555182</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>583210</v>
+        <v>583713</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8473006661040987</v>
+        <v>0.8473006661040984</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8237476829127153</v>
+        <v>0.8257022127761279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8673883755496873</v>
+        <v>0.8681355916097956</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>42151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31335</v>
+        <v>31207</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58813</v>
+        <v>57740</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1129601923438554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0839753213744782</v>
+        <v>0.08363137163721286</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.157614013847514</v>
+        <v>0.1547397512638135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -8007,19 +8007,19 @@
         <v>54806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45948</v>
+        <v>44980</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65791</v>
+        <v>65721</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1298842288995563</v>
+        <v>0.1298842288995564</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1088915251593978</v>
+        <v>0.1065968802906204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1559161192129301</v>
+        <v>0.1557513299267224</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>161</v>
@@ -8028,19 +8028,19 @@
         <v>96957</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82796</v>
+        <v>81712</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114837</v>
+        <v>114721</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1219417427198281</v>
+        <v>0.1219417427198282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1041314381144509</v>
+        <v>0.1027688094531398</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.144429524085309</v>
+        <v>0.1442840680351234</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>330994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>314332</v>
+        <v>315405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>341810</v>
+        <v>341938</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8870398076561447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8423859861524862</v>
+        <v>0.8452602487361868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9160246786255217</v>
+        <v>0.9163686283627871</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>487</v>
@@ -8078,19 +8078,19 @@
         <v>367155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>356170</v>
+        <v>356240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>376013</v>
+        <v>376981</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8701157711004437</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8440838807870699</v>
+        <v>0.8442486700732776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8911084748406022</v>
+        <v>0.8934031197093796</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>730</v>
@@ -8099,19 +8099,19 @@
         <v>698150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>680270</v>
+        <v>680386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>712311</v>
+        <v>713395</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8780582572801719</v>
+        <v>0.8780582572801718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8555704759146924</v>
+        <v>0.8557159319648766</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8958685618855493</v>
+        <v>0.8972311905468602</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>31457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24548</v>
+        <v>24801</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40473</v>
+        <v>40264</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1529548708173067</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1193573658255857</v>
+        <v>0.1205905629796478</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1967898789198786</v>
+        <v>0.1957759456427157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>127</v>
@@ -8224,19 +8224,19 @@
         <v>47773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40924</v>
+        <v>40379</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56529</v>
+        <v>56292</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2102554750083787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1801101430484693</v>
+        <v>0.1777145685520695</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2487916374331506</v>
+        <v>0.2477484991322421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>182</v>
@@ -8245,19 +8245,19 @@
         <v>79230</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68760</v>
+        <v>67617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>91591</v>
+        <v>90937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1830314669564418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1588423743978336</v>
+        <v>0.1562027634752157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2115862214942173</v>
+        <v>0.2100737508731509</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>174208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>165192</v>
+        <v>165401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181117</v>
+        <v>180864</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8470451291826933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8032101210801212</v>
+        <v>0.8042240543572842</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8806426341744142</v>
+        <v>0.8794094370203519</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>365</v>
@@ -8295,19 +8295,19 @@
         <v>179442</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170686</v>
+        <v>170923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>186291</v>
+        <v>186836</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7897445249916215</v>
+        <v>0.7897445249916213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7512083625668493</v>
+        <v>0.7522515008677579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8198898569515306</v>
+        <v>0.8222854314479305</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>589</v>
@@ -8316,19 +8316,19 @@
         <v>353649</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>341288</v>
+        <v>341942</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>364119</v>
+        <v>365262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8169685330435584</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7884137785057829</v>
+        <v>0.7899262491268491</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8411576256021664</v>
+        <v>0.8437972365247837</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>55415</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44794</v>
+        <v>45760</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65569</v>
+        <v>66752</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.204703169335314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1654712564644963</v>
+        <v>0.1690376165696134</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2422141701935478</v>
+        <v>0.2465842447062657</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>109</v>
@@ -8441,19 +8441,19 @@
         <v>45046</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37181</v>
+        <v>37117</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53187</v>
+        <v>54818</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1707897897148689</v>
+        <v>0.1707897897148688</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.140970022949141</v>
+        <v>0.1407270757024452</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2016570710563856</v>
+        <v>0.2078419456932571</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -8462,19 +8462,19 @@
         <v>100460</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88705</v>
+        <v>87738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>114544</v>
+        <v>115006</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1879671938758385</v>
+        <v>0.1879671938758386</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1659727361446691</v>
+        <v>0.1641621284937229</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2143189224025532</v>
+        <v>0.2151836431663824</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>215292</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>205138</v>
+        <v>203955</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225913</v>
+        <v>224947</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7952968306646859</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7577858298064517</v>
+        <v>0.7534157552937345</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8345287435355037</v>
+        <v>0.8309623834303866</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>351</v>
@@ -8512,19 +8512,19 @@
         <v>218704</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>210563</v>
+        <v>208932</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226569</v>
+        <v>226633</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8292102102851313</v>
+        <v>0.829210210285131</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7983429289436144</v>
+        <v>0.792158054306743</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.859029977050859</v>
+        <v>0.8592729242975549</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>623</v>
@@ -8533,19 +8533,19 @@
         <v>433997</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>419913</v>
+        <v>419451</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>445752</v>
+        <v>446719</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8120328061241615</v>
+        <v>0.8120328061241614</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7856810775974468</v>
+        <v>0.7848163568336174</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8340272638553309</v>
+        <v>0.8358378715062772</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>78812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64307</v>
+        <v>62050</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98173</v>
+        <v>96104</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1095085263970405</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08935423624330553</v>
+        <v>0.08621777003538915</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1364108399670899</v>
+        <v>0.1335355044938316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -8658,19 +8658,19 @@
         <v>110175</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94642</v>
+        <v>94869</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>128203</v>
+        <v>128136</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1427032567941846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1225841951735059</v>
+        <v>0.1228782635242976</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1660540258050701</v>
+        <v>0.165967019122893</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>239</v>
@@ -8679,19 +8679,19 @@
         <v>188987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>167345</v>
+        <v>165706</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>215035</v>
+        <v>213585</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1266885649921885</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1121806520028685</v>
+        <v>0.1110820375101626</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.144150049813587</v>
+        <v>0.1431779585683156</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>640875</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>621514</v>
+        <v>623583</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655380</v>
+        <v>657637</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8904914736029598</v>
+        <v>0.8904914736029594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8635891600329103</v>
+        <v>0.8664644955061684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9106457637566946</v>
+        <v>0.9137822299646113</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>802</v>
@@ -8729,19 +8729,19 @@
         <v>661882</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>643854</v>
+        <v>643921</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>677415</v>
+        <v>677188</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8572967432058153</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8339459741949299</v>
+        <v>0.8340329808771066</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8774158048264941</v>
+        <v>0.8771217364757021</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1320</v>
@@ -8750,19 +8750,19 @@
         <v>1302757</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1276709</v>
+        <v>1278159</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1324399</v>
+        <v>1326038</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8733114350078114</v>
+        <v>0.8733114350078117</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8558499501864132</v>
+        <v>0.8568220414316845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8878193479971318</v>
+        <v>0.8889179624898375</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>79713</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65459</v>
+        <v>66561</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>96146</v>
+        <v>96075</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09988229846826921</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08202104258974864</v>
+        <v>0.08340215135144299</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1204730642457082</v>
+        <v>0.120383621566543</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>151</v>
@@ -8875,19 +8875,19 @@
         <v>99758</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>86585</v>
+        <v>85130</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>117262</v>
+        <v>115934</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1201891196343925</v>
+        <v>0.1201891196343926</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1043181433103956</v>
+        <v>0.1025652733146608</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1412788381613563</v>
+        <v>0.1396785751886924</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>253</v>
@@ -8896,19 +8896,19 @@
         <v>179471</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>157253</v>
+        <v>158411</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>200920</v>
+        <v>202350</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1102348618778877</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09658787966749775</v>
+        <v>0.09729951660537063</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1234093883816532</v>
+        <v>0.1242876176496438</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>718359</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>701926</v>
+        <v>701997</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>732613</v>
+        <v>731511</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9001177015317308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8795269357542914</v>
+        <v>0.8796163784334573</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9179789574102512</v>
+        <v>0.9165978486485572</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>909</v>
@@ -8946,19 +8946,19 @@
         <v>730248</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>712744</v>
+        <v>714072</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>743421</v>
+        <v>744876</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8798108803656074</v>
+        <v>0.8798108803656075</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8587211618386438</v>
+        <v>0.8603214248113076</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8956818566896044</v>
+        <v>0.8974347266853392</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1569</v>
@@ -8967,19 +8967,19 @@
         <v>1448607</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1427158</v>
+        <v>1425728</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1470825</v>
+        <v>1469667</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8897651381221124</v>
+        <v>0.8897651381221123</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8765906116183467</v>
+        <v>0.8757123823503562</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9034121203325023</v>
+        <v>0.9027004833946294</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>423495</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>389253</v>
+        <v>387344</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>458956</v>
+        <v>460076</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.11990995586167</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1102144921849681</v>
+        <v>0.1096740802742392</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1299504596032464</v>
+        <v>0.1302675119909749</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>944</v>
@@ -9092,19 +9092,19 @@
         <v>518329</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>486520</v>
+        <v>488713</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>551456</v>
+        <v>553670</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1388638391526295</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1303419372563774</v>
+        <v>0.1309294497317474</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1477387047118719</v>
+        <v>0.1483317118681589</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1496</v>
@@ -9113,19 +9113,19 @@
         <v>941824</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>891102</v>
+        <v>893162</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>989330</v>
+        <v>994226</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1296489464831197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1226666724310728</v>
+        <v>0.1229501971917022</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1361884414991504</v>
+        <v>0.136862421940205</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3108280</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3072819</v>
+        <v>3071699</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3142522</v>
+        <v>3144431</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.88009004413833</v>
+        <v>0.8800900441383299</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8700495403967531</v>
+        <v>0.8697324880090249</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8897855078150316</v>
+        <v>0.8903259197257609</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4416</v>
@@ -9163,19 +9163,19 @@
         <v>3214316</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3181189</v>
+        <v>3178975</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3246125</v>
+        <v>3243932</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8611361608473705</v>
+        <v>0.8611361608473703</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.852261295288128</v>
+        <v>0.851668288131841</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8696580627436225</v>
+        <v>0.8690705502682525</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7239</v>
@@ -9184,19 +9184,19 @@
         <v>6322595</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6275089</v>
+        <v>6270193</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6373317</v>
+        <v>6371257</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8703510535168804</v>
+        <v>0.8703510535168802</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8638115585008497</v>
+        <v>0.8631375780597952</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8773333275689273</v>
+        <v>0.8770498028082976</v>
       </c>
     </row>
     <row r="30">
